--- a/RawData/cropfertrates.xlsx
+++ b/RawData/cropfertrates.xlsx
@@ -5007,4 +5007,248 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010050CB5C7BD841A746A008EF8990FEF8A1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="af3cd4e38eab4ac2fa97473cd31e4822">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d795cf93-200f-4322-ae4e-3af3c2bc7b07" xmlns:ns3="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa13b4ea85a0338065f13f7b4bcf2fc3" ns2:_="" ns3:_="">
+    <xsd:import namespace="d795cf93-200f-4322-ae4e-3af3c2bc7b07"/>
+    <xsd:import namespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d795cf93-200f-4322-ae4e-3af3c2bc7b07" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42452D6C-3370-4B83-9F29-376AE1978CE9}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{231F457C-7C38-4824-97E4-6CD9B5654533}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{219D0B57-E8A1-4271-8754-8FF11E373741}"/>
 </file>
--- a/RawData/cropfertrates.xlsx
+++ b/RawData/cropfertrates.xlsx
@@ -5010,8 +5010,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010050CB5C7BD841A746A008EF8990FEF8A1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="af3cd4e38eab4ac2fa97473cd31e4822">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d795cf93-200f-4322-ae4e-3af3c2bc7b07" xmlns:ns3="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa13b4ea85a0338065f13f7b4bcf2fc3" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010050CB5C7BD841A746A008EF8990FEF8A1" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="04f0adbf5da449b72a87907c36bfe402">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d795cf93-200f-4322-ae4e-3af3c2bc7b07" xmlns:ns3="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5e4044cd58a51a52832fd40a04c970f" ns2:_="" ns3:_="">
     <xsd:import namespace="d795cf93-200f-4322-ae4e-3af3c2bc7b07"/>
     <xsd:import namespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59"/>
     <xsd:element name="properties">
@@ -5032,6 +5032,8 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5096,6 +5098,13 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="28b28469-8996-4088-bd89-44d87d6385e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5125,6 +5134,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{68644ca3-003b-4e0e-bb82-ecd3a2033107}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -5237,12 +5257,17 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d795cf93-200f-4322-ae4e-3af3c2bc7b07">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42452D6C-3370-4B83-9F29-376AE1978CE9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0674749-4EBF-41B2-A226-E7E1E0623728}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/RawData/cropfertrates.xlsx
+++ b/RawData/cropfertrates.xlsx
@@ -5010,8 +5010,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010050CB5C7BD841A746A008EF8990FEF8A1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="af3cd4e38eab4ac2fa97473cd31e4822">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d795cf93-200f-4322-ae4e-3af3c2bc7b07" xmlns:ns3="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa13b4ea85a0338065f13f7b4bcf2fc3" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010050CB5C7BD841A746A008EF8990FEF8A1" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="04f0adbf5da449b72a87907c36bfe402">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d795cf93-200f-4322-ae4e-3af3c2bc7b07" xmlns:ns3="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5e4044cd58a51a52832fd40a04c970f" ns2:_="" ns3:_="">
     <xsd:import namespace="d795cf93-200f-4322-ae4e-3af3c2bc7b07"/>
     <xsd:import namespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59"/>
     <xsd:element name="properties">
@@ -5032,6 +5032,8 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5096,6 +5098,13 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="28b28469-8996-4088-bd89-44d87d6385e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5125,6 +5134,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{68644ca3-003b-4e0e-bb82-ecd3a2033107}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -5237,12 +5257,17 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d795cf93-200f-4322-ae4e-3af3c2bc7b07">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42452D6C-3370-4B83-9F29-376AE1978CE9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA96703D-11D0-4290-9C29-40A10BA9C077}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/RawData/cropfertrates.xlsx
+++ b/RawData/cropfertrates.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCD7722-60F4-7643-9FC0-E3E34FB96151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7420" yWindow="680" windowWidth="28760" windowHeight="19660" activeTab="4" xr2:uid="{ACD52FB1-2477-7646-B2ED-4056C048DD2A}"/>
+    <workbookView xWindow="7420" yWindow="680" windowWidth="28760" windowHeight="19660" firstSheet="4" activeTab="4" xr2:uid="{ACD52FB1-2477-7646-B2ED-4056C048DD2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Nfert" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Pfert_P2O5" sheetId="4" r:id="rId4"/>
     <sheet name="N_P_ratio" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +30,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,16 +45,43 @@
     <t>N inputs to crops in lbs/acre</t>
   </si>
   <si>
+    <t>kg/km2</t>
+  </si>
+  <si>
+    <t>lbs/km2</t>
+  </si>
+  <si>
+    <t>lbs/acre</t>
+  </si>
+  <si>
+    <t>area-weighted values from USDA fertilizer use spreadsheet</t>
+  </si>
+  <si>
     <t>corn for grain</t>
+  </si>
+  <si>
+    <t>USDA ERS</t>
+  </si>
+  <si>
+    <t>https://data.ers.usda.gov/reports.aspx?ID=17883</t>
   </si>
   <si>
     <t>corn for silage</t>
   </si>
   <si>
+    <t>NASS Quickstats, average from surveyed states</t>
+  </si>
+  <si>
     <t>wheat</t>
   </si>
   <si>
+    <t>estimated from MN extension recommendations</t>
+  </si>
+  <si>
     <t>oats</t>
+  </si>
+  <si>
+    <t>assumptions</t>
   </si>
   <si>
     <t>barley</t>
@@ -90,34 +120,25 @@
     <t>peanuts</t>
   </si>
   <si>
-    <t>lbs/acre</t>
+    <t>N inputs to crops in metric tons/km2</t>
   </si>
   <si>
-    <t>kg/km2</t>
+    <t>P inputs to crops in lbs/acre</t>
   </si>
   <si>
-    <t>lbs/km2</t>
+    <t>P inputs to crops in metric tons/km2</t>
   </si>
   <si>
-    <t>area-weighted values from USDA fertilizer use spreadsheet</t>
+    <t>from Chris's spreadsheets, don't seem to take % of area applied into account</t>
   </si>
   <si>
     <t>MN extension recommendations</t>
   </si>
   <si>
-    <t>assumptions</t>
-  </si>
-  <si>
-    <t>https://data.ers.usda.gov/reports.aspx?ID=17883</t>
-  </si>
-  <si>
-    <t>USDA ERS</t>
-  </si>
-  <si>
     <t>P2O5 inputs to crops in lbs/acre</t>
   </si>
   <si>
-    <t>estimated from MN extension recommendations</t>
+    <t>estimated from MN extension recommendations, 2019</t>
   </si>
   <si>
     <t>Mass of P2O5</t>
@@ -132,24 +153,6 @@
     <t>kgP/kgP2O5</t>
   </si>
   <si>
-    <t>P inputs to crops in lbs/acre</t>
-  </si>
-  <si>
-    <t>NASS Quickstats, average from surveyed states</t>
-  </si>
-  <si>
-    <t>estimated from MN extension recommendations, 2019</t>
-  </si>
-  <si>
-    <t>from Chris's spreadsheets, don't seem to take % of area applied into account</t>
-  </si>
-  <si>
-    <t>N inputs to crops in metric tons/km2</t>
-  </si>
-  <si>
-    <t>P inputs to crops in metric tons/km2</t>
-  </si>
-  <si>
     <t>N/P inputs to crops in lbs/acre</t>
   </si>
 </sst>
@@ -158,9 +161,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,11 +213,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -282,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -300,29 +298,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -644,12 +638,12 @@
       <selection activeCell="D41" sqref="D41:D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,7 +654,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="2"/>
       <c r="B2" s="1">
         <v>1987</v>
@@ -684,21 +678,21 @@
         <v>2017</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="9">
         <v>126.72</v>
@@ -733,15 +727,15 @@
         <v>131.02155000000002</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>126.72</v>
@@ -776,12 +770,12 @@
         <v>0</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" s="9">
         <v>49.6</v>
@@ -816,12 +810,12 @@
         <v>63.572850000000003</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B6" s="8">
         <v>32.805168139999999</v>
@@ -856,12 +850,12 @@
         <v>53.834220000000002</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7" s="8">
         <v>62.980865000000001</v>
@@ -896,9 +890,9 @@
         <v>60.062309999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" s="8">
         <v>66.171302760000003</v>
@@ -933,29 +927,29 @@
         <v>81.116640000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="17">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
         <v>66.171302760000003</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="2">
         <v>66.171302760000003</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="2">
         <v>66.171302760000003</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="2">
         <v>66.171302760000003</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="2">
         <v>60.829979880000003</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="2">
         <v>55.488657000000003</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="2">
         <v>55.488656999999996</v>
       </c>
       <c r="J9" s="5">
@@ -970,9 +964,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B10" s="16">
         <v>191.00200000000001</v>
@@ -1007,9 +1001,9 @@
         <v>210.93534</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B11" s="10">
         <f>$L11</f>
@@ -1051,9 +1045,9 @@
         <v>40.032629999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B12" s="10">
         <f>$L12</f>
@@ -1095,35 +1089,35 @@
         <v>20.011860000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="18">
+        <v>20</v>
+      </c>
+      <c r="B13" s="17">
         <f>$L13</f>
         <v>20.011860000000002</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <f t="shared" si="2"/>
         <v>20.011860000000002</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <f t="shared" si="2"/>
         <v>20.011860000000002</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <f t="shared" si="2"/>
         <v>20.011860000000002</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <f t="shared" si="2"/>
         <v>20.011860000000002</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <f t="shared" si="2"/>
         <v>20.011860000000002</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="17">
         <f t="shared" si="2"/>
         <v>20.011860000000002</v>
       </c>
@@ -1139,9 +1133,9 @@
         <v>20.011860000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B14" s="9">
         <v>3</v>
@@ -1176,9 +1170,9 @@
         <v>4.0273200000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6">
         <f>$L15</f>
@@ -1220,9 +1214,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B16" s="6">
         <f>$L16</f>
@@ -1264,9 +1258,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B17" s="8">
         <v>180.9969227</v>
@@ -1301,9 +1295,9 @@
         <v>160.07706000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B18" s="8">
         <v>25.820115430000001</v>
@@ -1338,7 +1332,7 @@
         <v>12.37599</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="J19" s="5">
         <v>14705</v>
       </c>
@@ -1351,7 +1345,7 @@
         <v>131.02155000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="J20" s="5">
         <v>14705</v>
       </c>
@@ -1364,7 +1358,7 @@
         <v>131.02155000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="J21" s="5">
         <v>14705</v>
       </c>
@@ -1377,9 +1371,9 @@
         <v>131.02155000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1388,7 +1382,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" s="2"/>
       <c r="B26" s="1">
         <v>1987</v>
@@ -1412,9 +1406,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B27" s="9">
         <f>B3/0.00405/2.2/10^3</f>
@@ -1445,9 +1439,9 @@
         <v>16.086980920314254</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" ref="B28:H28" si="4">B4/0.00405/2.2/10^3</f>
@@ -1478,9 +1472,9 @@
         <v>16.086980920314254</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B29" s="9">
         <f t="shared" ref="B29:H29" si="5">B5/0.00405/2.2/10^3</f>
@@ -1511,9 +1505,9 @@
         <v>7.7037037037037033</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B30" s="8">
         <f t="shared" ref="B30:H30" si="6">B6/0.00405/2.2/10^3</f>
@@ -1544,9 +1538,9 @@
         <v>3.68183705274972</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B31" s="8">
         <f t="shared" ref="B31:H31" si="7">B7/0.00405/2.2/10^3</f>
@@ -1577,9 +1571,9 @@
         <v>7.0685594837261494</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B32" s="8">
         <f t="shared" ref="B32:H32" si="8">B8/0.00405/2.2/10^3</f>
@@ -1610,42 +1604,42 @@
         <v>6.2276831649831639</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="17">
+        <v>16</v>
+      </c>
+      <c r="B33" s="2">
         <f t="shared" ref="B33:H33" si="9">B9/0.00405/2.2/10^3</f>
         <v>7.4266333063973065</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="2">
         <f t="shared" si="9"/>
         <v>7.4266333063973065</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="2">
         <f t="shared" si="9"/>
         <v>7.4266333063973065</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="2">
         <f t="shared" si="9"/>
         <v>7.4266333063973065</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="2">
         <f t="shared" si="9"/>
         <v>6.8271582356902361</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="2">
         <f t="shared" si="9"/>
         <v>6.2276831649831648</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="2">
         <f t="shared" si="9"/>
         <v>6.2276831649831639</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B34" s="16">
         <f t="shared" ref="B34:H34" si="10">B10/0.00405/2.2/10^3</f>
@@ -1676,9 +1670,9 @@
         <v>22.777777777777775</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B35" s="10">
         <f t="shared" ref="B35:H35" si="11">B11/0.00405/2.2/10^3</f>
@@ -1709,9 +1703,9 @@
         <v>4.4930000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B36" s="10">
         <f t="shared" ref="B36:H36" si="12">B12/0.00405/2.2/10^3</f>
@@ -1742,42 +1736,42 @@
         <v>2.246</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="18">
+        <v>20</v>
+      </c>
+      <c r="B37" s="17">
         <f t="shared" ref="B37:H37" si="13">B13/0.00405/2.2/10^3</f>
         <v>2.246</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="17">
         <f t="shared" si="13"/>
         <v>2.246</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="17">
         <f t="shared" si="13"/>
         <v>2.246</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="17">
         <f t="shared" si="13"/>
         <v>2.246</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="17">
         <f t="shared" si="13"/>
         <v>2.246</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="17">
         <f t="shared" si="13"/>
         <v>2.246</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="17">
         <f t="shared" si="13"/>
         <v>2.246</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B38" s="9">
         <f t="shared" ref="B38:H38" si="14">B14/0.00405/2.2/10^3</f>
@@ -1808,9 +1802,9 @@
         <v>0.62626262626262619</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39:H39" si="15">B15/0.00405/2.2/10^3</f>
@@ -1841,9 +1835,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B40" s="6">
         <f t="shared" ref="B40:H40" si="16">B16/0.00405/2.2/10^3</f>
@@ -1874,9 +1868,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B41" s="8">
         <f t="shared" ref="B41:H41" si="17">B17/0.00405/2.2/10^3</f>
@@ -1907,9 +1901,9 @@
         <v>18.235871156004489</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B42" s="8">
         <f t="shared" ref="B42:H42" si="18">B18/0.00405/2.2/10^3</f>
@@ -1956,14 +1950,14 @@
       <selection sqref="A1:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1972,7 +1966,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="2"/>
       <c r="B2" s="2">
         <v>1987</v>
@@ -1996,12 +1990,12 @@
         <v>2017</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="9">
         <f>Pfert_P2O5!B3*Pfert_P2O5!$K$12</f>
@@ -2032,15 +2026,15 @@
         <v>22.407483206464494</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <f>Pfert_P2O5!B4*Pfert_P2O5!$K$12</f>
@@ -2071,12 +2065,12 @@
         <v>22.407483206464494</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" s="9">
         <f>Pfert_P2O5!B5*Pfert_P2O5!$K$12</f>
@@ -2107,12 +2101,12 @@
         <v>5.7862361697705786</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B6" s="8">
         <f>Pfert_P2O5!B6*Pfert_P2O5!$K$12</f>
@@ -2143,12 +2137,12 @@
         <v>6.6348309393826463</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7" s="8">
         <f>Pfert_P2O5!B7*Pfert_P2O5!$K$12</f>
@@ -2179,9 +2173,9 @@
         <v>8.937477988368693</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" s="8">
         <f>Pfert_P2O5!B8*Pfert_P2O5!$K$12</f>
@@ -2212,42 +2206,42 @@
         <v>6.3183652409216275</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="17">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
         <f>Pfert_P2O5!B9*Pfert_P2O5!$K$12</f>
         <v>6.8015795355128228</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="2">
         <f>Pfert_P2O5!C9*Pfert_P2O5!$K$12</f>
         <v>6.8015795355128228</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="2">
         <f>Pfert_P2O5!D9*Pfert_P2O5!$K$12</f>
         <v>6.8015795355128228</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="2">
         <f>Pfert_P2O5!E9*Pfert_P2O5!$K$12</f>
         <v>6.8015795355128228</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="2">
         <f>Pfert_P2O5!F9*Pfert_P2O5!$K$12</f>
         <v>6.5599723903990634</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="2">
         <f>Pfert_P2O5!G9*Pfert_P2O5!$K$12</f>
         <v>6.3183652409216267</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="2">
         <f>Pfert_P2O5!H9*Pfert_P2O5!$K$12</f>
         <v>6.3183652409216275</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B10" s="16">
         <f>Pfert_P2O5!B10*Pfert_P2O5!$K$12</f>
@@ -2278,9 +2272,9 @@
         <v>60.395476400987704</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B11" s="10">
         <f>Pfert_P2O5!B11*Pfert_P2O5!$K$12</f>
@@ -2311,9 +2305,9 @@
         <v>8.7273547055363174</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B12" s="10">
         <f>Pfert_P2O5!B12*Pfert_P2O5!$K$12</f>
@@ -2344,42 +2338,42 @@
         <v>13.091032058304476</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="18">
+        <v>20</v>
+      </c>
+      <c r="B13" s="17">
         <f>Pfert_P2O5!B13*Pfert_P2O5!$K$12</f>
         <v>13.091032058304476</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <f>Pfert_P2O5!C13*Pfert_P2O5!$K$12</f>
         <v>13.091032058304476</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <f>Pfert_P2O5!D13*Pfert_P2O5!$K$12</f>
         <v>13.091032058304476</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <f>Pfert_P2O5!E13*Pfert_P2O5!$K$12</f>
         <v>13.091032058304476</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <f>Pfert_P2O5!F13*Pfert_P2O5!$K$12</f>
         <v>13.091032058304476</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <f>Pfert_P2O5!G13*Pfert_P2O5!$K$12</f>
         <v>13.091032058304476</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="17">
         <f>Pfert_P2O5!H13*Pfert_P2O5!$K$12</f>
         <v>13.091032058304476</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B14" s="9">
         <f>Pfert_P2O5!B14*Pfert_P2O5!$K$12</f>
@@ -2410,9 +2404,9 @@
         <v>9.3033601161017145</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6">
         <f>Pfert_P2O5!B15*Pfert_P2O5!$K$12</f>
@@ -2443,9 +2437,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B16" s="6">
         <f>Pfert_P2O5!B16*Pfert_P2O5!$K$12</f>
@@ -2476,9 +2470,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B17" s="8">
         <f>Pfert_P2O5!B17*Pfert_P2O5!$K$12</f>
@@ -2509,9 +2503,9 @@
         <v>16.862715486686696</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B18" s="8">
         <f>Pfert_P2O5!B18*Pfert_P2O5!$K$12</f>
@@ -2542,9 +2536,9 @@
         <v>7.3632080735780523</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2553,7 +2547,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="1">
         <v>1987</v>
@@ -2577,9 +2571,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B27" s="9">
         <f>B3/0.00405/2.2/10^3</f>
@@ -2610,9 +2604,9 @@
         <v>2.5148690467412451</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" ref="B28:H42" si="1">B4/0.00405/2.2/10^3</f>
@@ -2643,9 +2637,9 @@
         <v>2.5148690467412451</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B29" s="9">
         <f t="shared" si="1"/>
@@ -2676,9 +2670,9 @@
         <v>0.64940922219647346</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B30" s="8">
         <f t="shared" si="1"/>
@@ -2709,9 +2703,9 @@
         <v>0.74464993707998273</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B31" s="8">
         <f t="shared" si="1"/>
@@ -2742,9 +2736,9 @@
         <v>1.0030839493118624</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B32" s="8">
         <f t="shared" si="1"/>
@@ -2775,42 +2769,42 @@
         <v>0.7091319013380053</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="17">
+        <v>16</v>
+      </c>
+      <c r="B33" s="2">
         <f t="shared" si="1"/>
         <v>0.76336470656709576</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="2">
         <f t="shared" si="1"/>
         <v>0.76336470656709576</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="2">
         <f t="shared" si="1"/>
         <v>0.76336470656709576</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="2">
         <f t="shared" si="1"/>
         <v>0.76336470656709576</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="2">
         <f t="shared" si="1"/>
         <v>0.73624830419742571</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>0.70913190133800519</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="2">
         <f t="shared" si="1"/>
         <v>0.7091319013380053</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B34" s="16">
         <f t="shared" si="1"/>
@@ -2841,9 +2835,9 @@
         <v>6.7783924131299331</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B35" s="10">
         <f t="shared" si="1"/>
@@ -2874,9 +2868,9 @@
         <v>0.97950108928578183</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B36" s="10">
         <f t="shared" si="1"/>
@@ -2907,42 +2901,42 @@
         <v>1.4692516339286728</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="18">
+        <v>20</v>
+      </c>
+      <c r="B37" s="17">
         <f t="shared" si="1"/>
         <v>1.4692516339286728</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="17">
         <f t="shared" si="1"/>
         <v>1.4692516339286728</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="17">
         <f t="shared" si="1"/>
         <v>1.4692516339286728</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="17">
         <f t="shared" si="1"/>
         <v>1.4692516339286728</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="17">
         <f t="shared" si="1"/>
         <v>1.4692516339286728</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="17">
         <f t="shared" si="1"/>
         <v>1.4692516339286728</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="17">
         <f t="shared" si="1"/>
         <v>1.4692516339286728</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B38" s="9">
         <f t="shared" si="1"/>
@@ -2973,9 +2967,9 @@
         <v>1.0441481611786436</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B39" s="6">
         <f t="shared" si="1"/>
@@ -3006,9 +3000,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B40" s="6">
         <f t="shared" si="1"/>
@@ -3039,9 +3033,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B41" s="8">
         <f t="shared" si="1"/>
@@ -3072,9 +3066,9 @@
         <v>1.8925606606831309</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B42" s="8">
         <f t="shared" si="1"/>
@@ -3121,12 +3115,12 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3137,7 +3131,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2"/>
       <c r="B2" s="1">
         <v>1987</v>
@@ -3159,18 +3153,18 @@
       </c>
       <c r="H2" s="1"/>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="9">
         <v>126.72</v>
@@ -3202,9 +3196,9 @@
         <v>131.02155000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>126.72</v>
@@ -3236,9 +3230,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" s="9">
         <v>49.6</v>
@@ -3270,9 +3264,9 @@
         <v>63.572850000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B6" s="7">
         <f>$L6</f>
@@ -3310,9 +3304,9 @@
         <v>53.834220000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7" s="7">
         <f>$L7</f>
@@ -3350,9 +3344,9 @@
         <v>60.062309999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" s="7">
         <f>$L8</f>
@@ -3390,9 +3384,9 @@
         <v>81.116640000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B9" s="8">
         <v>81.116640000000004</v>
@@ -3424,9 +3418,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B10" s="7">
         <f>$L10</f>
@@ -3464,9 +3458,9 @@
         <v>210.93534</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B11" s="10">
         <f>$L11</f>
@@ -3504,9 +3498,9 @@
         <v>40.032629999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B12" s="10">
         <f>$L12</f>
@@ -3544,9 +3538,9 @@
         <v>20.011860000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B13" s="10">
         <f>$L13</f>
@@ -3584,9 +3578,9 @@
         <v>20.011860000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B14" s="9">
         <v>3</v>
@@ -3618,9 +3612,9 @@
         <v>4.0273200000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6">
         <f>$L15</f>
@@ -3658,9 +3652,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B16" s="6">
         <f>$L16</f>
@@ -3698,9 +3692,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B17" s="7">
         <f>$L17</f>
@@ -3738,9 +3732,9 @@
         <v>160.07706000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B18" s="7">
         <f>$L18</f>
@@ -3778,7 +3772,7 @@
         <v>12.37599</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="J19" s="5">
         <v>14705</v>
       </c>
@@ -3791,7 +3785,7 @@
         <v>131.02155000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="J20" s="5">
         <v>14705</v>
       </c>
@@ -3804,7 +3798,7 @@
         <v>131.02155000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="J21" s="5">
         <v>14705</v>
       </c>
@@ -3817,24 +3811,24 @@
         <v>131.02155000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="B23" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="B24" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="B25" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="B26" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3850,14 +3844,14 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3866,7 +3860,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2"/>
       <c r="B2" s="2">
         <v>1987</v>
@@ -3890,12 +3884,12 @@
         <v>2017</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="9">
         <v>50.63</v>
@@ -3919,15 +3913,15 @@
         <v>51.349999999999994</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>50.63</v>
@@ -3944,19 +3938,19 @@
       <c r="F4" s="2">
         <v>47</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="2">
         <v>50</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="22">
         <v>51.349999999999994</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" s="9">
         <v>17.5</v>
@@ -3976,16 +3970,16 @@
       <c r="G5" s="9">
         <v>21.42</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="23">
         <v>13.26</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B6" s="8">
         <v>15.204678080000001</v>
@@ -4005,16 +3999,16 @@
       <c r="G6" s="8">
         <v>15.204678080000001</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="24">
         <v>15.204678080000003</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7" s="8">
         <v>20.481528000000001</v>
@@ -4034,13 +4028,13 @@
       <c r="G7" s="8">
         <v>20.481528000000001</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="24">
         <v>20.481528000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" s="8">
         <v>15.58680669</v>
@@ -4060,39 +4054,39 @@
       <c r="G8" s="8">
         <v>14.479450999999999</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="24">
         <v>14.479451000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="17">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
         <v>15.58680669</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="2">
         <v>15.58680669</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="2">
         <v>15.58680669</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="2">
         <v>15.58680669</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="2">
         <v>15.033128850000001</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="2">
         <v>14.479450999999999</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="25">
         <v>14.479451000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B10" s="16">
         <v>154.6524</v>
@@ -4116,15 +4110,15 @@
         <v>138.405</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="19">
+        <v>33</v>
+      </c>
+      <c r="K10" s="18">
         <v>141.94450000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B11" s="10">
         <v>20</v>
@@ -4148,16 +4142,16 @@
         <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K11">
         <f>30.97*2</f>
         <v>61.94</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B12" s="10">
         <v>30</v>
@@ -4181,45 +4175,45 @@
         <v>30</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K12">
         <f>K11/K10</f>
         <v>0.43636773527681588</v>
       </c>
       <c r="L12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="17">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="18">
+      <c r="C13" s="17">
         <v>30</v>
       </c>
-      <c r="C13" s="18">
+      <c r="D13" s="17">
         <v>30</v>
       </c>
-      <c r="D13" s="18">
+      <c r="E13" s="17">
         <v>30</v>
       </c>
-      <c r="E13" s="18">
+      <c r="F13" s="17">
         <v>30</v>
       </c>
-      <c r="F13" s="18">
+      <c r="G13" s="17">
         <v>30</v>
       </c>
-      <c r="G13" s="18">
+      <c r="H13" s="17">
         <v>30</v>
       </c>
-      <c r="H13" s="18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B14" s="9">
         <v>11.75</v>
@@ -4239,13 +4233,13 @@
       <c r="G14" s="9">
         <v>18.13</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="23">
         <v>21.32</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6">
         <v>0</v>
@@ -4269,9 +4263,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -4295,9 +4289,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B17" s="8">
         <v>36.028463809999998</v>
@@ -4321,9 +4315,9 @@
         <v>38.643360000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B18" s="8">
         <v>32.631878399999998</v>
@@ -4360,16 +4354,16 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:P18"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -4379,12 +4373,10 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="25"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2"/>
       <c r="B2" s="2">
         <v>1987</v>
@@ -4407,602 +4399,602 @@
       <c r="H2" s="2">
         <v>2017</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="26"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M2" s="2"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="17">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
         <f>Nfert!B3/Pfert!B3</f>
         <v>5.7356759272941371</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="2">
         <f>Nfert!C3/Pfert!C3</f>
         <v>6.0399607371220299</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="2">
         <f>Nfert!D3/Pfert!D3</f>
         <v>6.1598732158941107</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="2">
         <f>Nfert!E3/Pfert!E3</f>
         <v>6.358590060613988</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="2">
         <f>Nfert!F3/Pfert!F3</f>
         <v>6.5336265706689396</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="2">
         <f>Nfert!G3/Pfert!G3</f>
         <v>6.2791076848563128</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="2">
         <f>Nfert!H3/Pfert!H3</f>
         <v>6.3967469563314578</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="29"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M3" s="4"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="20"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="17">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
         <f>Nfert!B4/Pfert!B4</f>
         <v>5.7356759272941371</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="2">
         <f>Nfert!C4/Pfert!C4</f>
         <v>6.0399607371220299</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="2">
         <f>Nfert!D4/Pfert!D4</f>
         <v>6.1598732158941107</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="2">
         <f>Nfert!E4/Pfert!E4</f>
         <v>6.358590060613988</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="2">
         <f>Nfert!F4/Pfert!F4</f>
         <v>6.5336265706689396</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="2">
         <f>Nfert!G4/Pfert!G4</f>
         <v>6.2791076848563128</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="2">
         <f>Nfert!H4/Pfert!H4</f>
         <v>6.3967469563314578</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="29"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M4" s="4"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="20"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="17">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
         <f>Nfert!B5/Pfert!B5</f>
         <v>6.4951770838138296</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="2">
         <f>Nfert!C5/Pfert!C5</f>
         <v>6.2935989703033304</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="2">
         <f>Nfert!D5/Pfert!D5</f>
         <v>6.5288365218634627</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="2">
         <f>Nfert!E5/Pfert!E5</f>
         <v>6.381686086381599</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="2">
         <f>Nfert!F5/Pfert!F5</f>
         <v>6.0019277488199032</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="2">
         <f>Nfert!G5/Pfert!G5</f>
         <v>6.4962041516638953</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="2">
         <f>Nfert!H5/Pfert!H5</f>
         <v>11.862633668255809</v>
       </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="29"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M5" s="4"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="17">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
         <f>Nfert!B6/Pfert!B6</f>
         <v>4.9443864417519636</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="2">
         <f>Nfert!C6/Pfert!C6</f>
         <v>4.9443864417519636</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="2">
         <f>Nfert!D6/Pfert!D6</f>
         <v>4.9443864417519636</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="2">
         <f>Nfert!E6/Pfert!E6</f>
         <v>4.9443864417519636</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="2">
         <f>Nfert!F6/Pfert!F6</f>
         <v>4.9443864417519636</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="2">
         <f>Nfert!G6/Pfert!G6</f>
         <v>4.9443864417519636</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="2">
         <f>Nfert!H6/Pfert!H6</f>
         <v>4.9443864417519645</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="29"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M6" s="4"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="20"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="17">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
         <f>Nfert!B7/Pfert!B7</f>
         <v>7.0468274251375851</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="2">
         <f>Nfert!C7/Pfert!C7</f>
         <v>7.0468274251375851</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="2">
         <f>Nfert!D7/Pfert!D7</f>
         <v>7.0468274251375851</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="2">
         <f>Nfert!E7/Pfert!E7</f>
         <v>7.0468274251375851</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="2">
         <f>Nfert!F7/Pfert!F7</f>
         <v>7.0468274251375851</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="2">
         <f>Nfert!G7/Pfert!G7</f>
         <v>7.0468274251375851</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="2">
         <f>Nfert!H7/Pfert!H7</f>
         <v>7.0468274251375842</v>
       </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="29"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M7" s="4"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="20"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="17">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
         <f>Nfert!B8/Pfert!B8</f>
         <v>9.7288140812736739</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="2">
         <f>Nfert!C8/Pfert!C8</f>
         <v>9.7288140812736739</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="2">
         <f>Nfert!D8/Pfert!D8</f>
         <v>9.7288140812736739</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="2">
         <f>Nfert!E8/Pfert!E8</f>
         <v>9.7288140812736739</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="2">
         <f>Nfert!F8/Pfert!F8</f>
         <v>9.2729018141949116</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="2">
         <f>Nfert!G8/Pfert!G8</f>
         <v>8.7821224136618863</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="2">
         <f>Nfert!H8/Pfert!H8</f>
         <v>8.7821224136618845</v>
       </c>
-      <c r="M8" s="27"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="29"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M8" s="4"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="20"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="17">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
         <f>Nfert!B9/Pfert!B9</f>
         <v>9.7288140812736739</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="2">
         <f>Nfert!C9/Pfert!C9</f>
         <v>9.7288140812736739</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="2">
         <f>Nfert!D9/Pfert!D9</f>
         <v>9.7288140812736739</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="2">
         <f>Nfert!E9/Pfert!E9</f>
         <v>9.7288140812736739</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="2">
         <f>Nfert!F9/Pfert!F9</f>
         <v>9.2729018141949116</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="2">
         <f>Nfert!G9/Pfert!G9</f>
         <v>8.7821224136618863</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="2">
         <f>Nfert!H9/Pfert!H9</f>
         <v>8.7821224136618845</v>
       </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="29"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M9" s="4"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="20"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="17">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
         <f>Nfert!B10/Pfert!B10</f>
         <v>2.8302748946531451</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="2">
         <f>Nfert!C10/Pfert!C10</f>
         <v>2.9116893976983778</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="2">
         <f>Nfert!D10/Pfert!D10</f>
         <v>3.0789109880309895</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="2">
         <f>Nfert!E10/Pfert!E10</f>
         <v>3.1766841083080548</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="2">
         <f>Nfert!F10/Pfert!F10</f>
         <v>3.2580614926442166</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="2">
         <f>Nfert!G10/Pfert!G10</f>
         <v>3.5488585035235318</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="2">
         <f>Nfert!H10/Pfert!H10</f>
         <v>3.3603510079553072</v>
       </c>
-      <c r="M10" s="27"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="29"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M10" s="4"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="20"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="17">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
         <f>Nfert!B11/Pfert!B11</f>
         <v>4.5870290999636749</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="2">
         <f>Nfert!C11/Pfert!C11</f>
         <v>4.5870290999636749</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="2">
         <f>Nfert!D11/Pfert!D11</f>
         <v>4.5870290999636749</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="2">
         <f>Nfert!E11/Pfert!E11</f>
         <v>4.5870290999636749</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="2">
         <f>Nfert!F11/Pfert!F11</f>
         <v>4.5870290999636749</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="2">
         <f>Nfert!G11/Pfert!G11</f>
         <v>4.5870290999636749</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="2">
         <f>Nfert!H11/Pfert!H11</f>
         <v>4.5870290999636749</v>
       </c>
-      <c r="M11" s="27"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="29"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M11" s="4"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="20"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="17">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2">
         <f>Nfert!B12/Pfert!B12</f>
         <v>1.5286693906845339</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="2">
         <f>Nfert!C12/Pfert!C12</f>
         <v>1.5286693906845339</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="2">
         <f>Nfert!D12/Pfert!D12</f>
         <v>1.5286693906845339</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="2">
         <f>Nfert!E12/Pfert!E12</f>
         <v>1.5286693906845339</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="2">
         <f>Nfert!F12/Pfert!F12</f>
         <v>1.5286693906845339</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="2">
         <f>Nfert!G12/Pfert!G12</f>
         <v>1.5286693906845339</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="2">
         <f>Nfert!H12/Pfert!H12</f>
         <v>1.5286693906845339</v>
       </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="29"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M12" s="4"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="20"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="17">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2">
         <f>Nfert!B13/Pfert!B13</f>
         <v>1.5286693906845339</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="2">
         <f>Nfert!C13/Pfert!C13</f>
         <v>1.5286693906845339</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="2">
         <f>Nfert!D13/Pfert!D13</f>
         <v>1.5286693906845339</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="2">
         <f>Nfert!E13/Pfert!E13</f>
         <v>1.5286693906845339</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="2">
         <f>Nfert!F13/Pfert!F13</f>
         <v>1.5286693906845339</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="2">
         <f>Nfert!G13/Pfert!G13</f>
         <v>1.5286693906845339</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="2">
         <f>Nfert!H13/Pfert!H13</f>
         <v>1.5286693906845339</v>
       </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="29"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M13" s="4"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="20"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="17">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2">
         <f>Nfert!B14/Pfert!B14</f>
         <v>0.58510088692557671</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="2">
         <f>Nfert!C14/Pfert!C14</f>
         <v>0.73137610865697078</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="2">
         <f>Nfert!D14/Pfert!D14</f>
         <v>0.81844469302089595</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="2">
         <f>Nfert!E14/Pfert!E14</f>
         <v>0.75548740894236555</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="2">
         <f>Nfert!F14/Pfert!F14</f>
         <v>0.56617115234857274</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="2">
         <f>Nfert!G14/Pfert!G14</f>
         <v>0.54605113109656689</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="2">
         <f>Nfert!H14/Pfert!H14</f>
         <v>0.59978329661156082</v>
       </c>
-      <c r="M14" s="27"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="29"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M14" s="4"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="20"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="17" t="e">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="e">
         <f>Nfert!B15/Pfert!B15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C15" s="17" t="e">
+      <c r="C15" s="2" t="e">
         <f>Nfert!C15/Pfert!C15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D15" s="17" t="e">
+      <c r="D15" s="2" t="e">
         <f>Nfert!D15/Pfert!D15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E15" s="17" t="e">
+      <c r="E15" s="2" t="e">
         <f>Nfert!E15/Pfert!E15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F15" s="17" t="e">
+      <c r="F15" s="2" t="e">
         <f>Nfert!F15/Pfert!F15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="17" t="e">
+      <c r="G15" s="2" t="e">
         <f>Nfert!G15/Pfert!G15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="17" t="e">
+      <c r="H15" s="2" t="e">
         <f>Nfert!H15/Pfert!H15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="27"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="29"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M15" s="4"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="20"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="17" t="e">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="e">
         <f>Nfert!B16/Pfert!B16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C16" s="17" t="e">
+      <c r="C16" s="2" t="e">
         <f>Nfert!C16/Pfert!C16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D16" s="17" t="e">
+      <c r="D16" s="2" t="e">
         <f>Nfert!D16/Pfert!D16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E16" s="17" t="e">
+      <c r="E16" s="2" t="e">
         <f>Nfert!E16/Pfert!E16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="17" t="e">
+      <c r="F16" s="2" t="e">
         <f>Nfert!F16/Pfert!F16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="17" t="e">
+      <c r="G16" s="2" t="e">
         <f>Nfert!G16/Pfert!G16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="17" t="e">
+      <c r="H16" s="2" t="e">
         <f>Nfert!H16/Pfert!H16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M16" s="27"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="29"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M16" s="4"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="20"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="17">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
         <f>Nfert!B17/Pfert!B17</f>
         <v>11.512584064943493</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="2">
         <f>Nfert!C17/Pfert!C17</f>
         <v>11.512584064943493</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="2">
         <f>Nfert!D17/Pfert!D17</f>
         <v>11.512584064943493</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="2">
         <f>Nfert!E17/Pfert!E17</f>
         <v>11.512584064943493</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="2">
         <f>Nfert!F17/Pfert!F17</f>
         <v>11.512584064943493</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="2">
         <f>Nfert!G17/Pfert!G17</f>
         <v>9.6355543760600764</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="2">
         <f>Nfert!H17/Pfert!H17</f>
         <v>9.6355543760600764</v>
       </c>
-      <c r="M17" s="27"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="29"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M17" s="4"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="20"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="17">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2">
         <f>Nfert!B18/Pfert!B18</f>
         <v>1.8132741647884192</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="2">
         <f>Nfert!C18/Pfert!C18</f>
         <v>1.8132741647884192</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="2">
         <f>Nfert!D18/Pfert!D18</f>
         <v>1.8132741647884192</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="2">
         <f>Nfert!E18/Pfert!E18</f>
         <v>1.4453025958926806</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="2">
         <f>Nfert!F18/Pfert!F18</f>
         <v>1.4453025958926806</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="2">
         <f>Nfert!G18/Pfert!G18</f>
         <v>1.5670798495298948</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="2">
         <f>Nfert!H18/Pfert!H18</f>
         <v>1.5670798495298948</v>
       </c>
-      <c r="M18" s="27"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5010,8 +5002,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010050CB5C7BD841A746A008EF8990FEF8A1" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="04f0adbf5da449b72a87907c36bfe402">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d795cf93-200f-4322-ae4e-3af3c2bc7b07" xmlns:ns3="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5e4044cd58a51a52832fd40a04c970f" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010050CB5C7BD841A746A008EF8990FEF8A1" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bcac96711073587df0b68b080c708180">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d795cf93-200f-4322-ae4e-3af3c2bc7b07" xmlns:ns3="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98209c71c39a5a5ad103d397a60c957b" ns2:_="" ns3:_="">
     <xsd:import namespace="d795cf93-200f-4322-ae4e-3af3c2bc7b07"/>
     <xsd:import namespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59"/>
     <xsd:element name="properties">
@@ -5034,6 +5035,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5104,6 +5106,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="23" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bec3e06c-9dd4-4aa2-90c9-9a788c41bf59" elementFormDefault="qualified">
@@ -5246,15 +5253,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5267,11 +5265,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA96703D-11D0-4290-9C29-40A10BA9C077}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{231F457C-7C38-4824-97E4-6CD9B5654533}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{231F457C-7C38-4824-97E4-6CD9B5654533}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07B51B6C-89C8-49E0-ABCD-DDC37F9A2783}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
